--- a/biology/Botanique/Limonium_meyeri/Limonium_meyeri.xlsx
+++ b/biology/Botanique/Limonium_meyeri/Limonium_meyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium meyeri est une espèce de plante de la famille des Plumbaginaceae et du genre Limonium.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium meyeri est une plante pérenne, pouvant atteindre une hauteur de 20 à 60 cm, glabre[2]. La partie distale de ses grandes feuilles est rouge et ressemble à une épine bien qu'elle soit molle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium meyeri est une plante pérenne, pouvant atteindre une hauteur de 20 à 60 cm, glabre. La partie distale de ses grandes feuilles est rouge et ressemble à une épine bien qu'elle soit molle.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium meyeri est une plante native de l'Europe du sud et de l'est et de l'Asie du sud-ouest[2].
-Elle pousse de préférence dans les steppes et les sols salins[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium meyeri est une plante native de l'Europe du sud et de l'est et de l'Asie du sud-ouest.
+Elle pousse de préférence dans les steppes et les sols salins.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Lobesia indusiana, Schrankia balneorum (en), Erysiphe limonii, Uromyces limonii, Agrochola nitida (en), Ancylosis substratellum, Agdistis intermedia[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Lobesia indusiana, Schrankia balneorum (en), Erysiphe limonii, Uromyces limonii, Agrochola nitida (en), Ancylosis substratellum, Agdistis intermedia.
 </t>
         </is>
       </c>
